--- a/DOT_NET/lab3.xlsx
+++ b/DOT_NET/lab3.xlsx
@@ -13,20 +13,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>c:\Users\chudy\source\repos\DOT_NET</t>
   </si>
   <si>
+    <t>c:\Users\chudy\source\repos\DOT_NET\bab.xlsx</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>c:\Users\chudy\source\repos\DOT_NET\lab3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>c:\Users\chudy\source\repos\DOT_NET\lab3.xlsx</t>
   </si>
   <si>
-    <t>.xlsx</t>
-  </si>
-  <si>
-    <t>Archive</t>
-  </si>
-  <si>
     <t>c:\Users\chudy\source\repos\DOT_NET\1.MSIL</t>
   </si>
   <si>
@@ -282,25 +291,13 @@
     <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus</t>
   </si>
   <si>
-    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp1</t>
-  </si>
-  <si>
-    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp1\ConsoleApp1.sln</t>
+    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp2</t>
+  </si>
+  <si>
+    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp2\ConsoleApp2.sln</t>
   </si>
   <si>
     <t>.sln</t>
-  </si>
-  <si>
-    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp1\.vs</t>
-  </si>
-  <si>
-    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp1\ConsoleApp1</t>
-  </si>
-  <si>
-    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp2</t>
-  </si>
-  <si>
-    <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp2\ConsoleApp2.sln</t>
   </si>
   <si>
     <t>c:\Users\chudy\source\repos\DOT_NET\2.EPPlus\ConsoleApp2\.vs</t>
@@ -369,7 +366,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Title Text</a:t>
+              <a:t>% roszerzeń wg rozmiaru</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -415,12 +412,12 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Statystyki!A12:A15</c:f>
+              <c:f>Statystyki!A12:A16</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Statystyki!B12:B15</c:f>
+              <c:f>Statystyki!B12:B16</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -472,19 +469,141 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>% roszerzeń ilosciowo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="20"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Statystyki!A12:A16</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statystyki!C12:C16</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F0F8FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr anchorCtr="1" anchor="ctr" wrap="square" vert="horz" vertOverflow="ellipsis" spcFirstLastPara="1" rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
@@ -504,13 +623,43 @@
     </graphicFrame>
     <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="PieChartDos"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,101 +684,101 @@
         <v>3</v>
       </c>
       <c r="D2" s="0">
-        <v>7779</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" outlineLevel="1">
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="0">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="0">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="2">
+    </row>
+    <row r="6" outlineLevel="1">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="0">
-        <v>4096</v>
-      </c>
     </row>
     <row r="7" outlineLevel="2">
       <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>7669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" outlineLevel="2">
       <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>13824</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="9" outlineLevel="2">
       <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="0">
-        <v>684</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="10" outlineLevel="2">
       <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>4096</v>
+        <v>13824</v>
       </c>
     </row>
     <row r="11" outlineLevel="2">
@@ -637,21 +786,21 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="0">
-        <v>7647</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" outlineLevel="2">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
@@ -662,113 +811,113 @@
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>6795</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="0">
-        <v>676</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="15" outlineLevel="2">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="0">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="16" outlineLevel="1">
+        <v>6795</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="2">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0">
+        <v>676</v>
       </c>
     </row>
     <row r="17" outlineLevel="2">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" outlineLevel="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="18" outlineLevel="1">
       <c r="A18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="0">
-        <v>655</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>4096</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="0">
-        <v>4096</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -779,10 +928,10 @@
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -796,13 +945,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="0">
-        <v>5443</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="24" outlineLevel="2">
@@ -810,35 +959,35 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="0">
-        <v>1192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>5503</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3</v>
@@ -849,199 +998,199 @@
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="0">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" outlineLevel="1">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="28" outlineLevel="2">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1192</v>
       </c>
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="0">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" outlineLevel="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" outlineLevel="1">
       <c r="A30" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="0">
-        <v>4096</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>5503</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="0">
-        <v>1192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="0">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="34" outlineLevel="1">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="34" outlineLevel="2">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0">
+        <v>1192</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="0">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="36" outlineLevel="2">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="36" outlineLevel="1">
       <c r="A36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="0">
-        <v>3072</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>4096</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="0">
-        <v>7667</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="0">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="40" outlineLevel="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="40" outlineLevel="2">
       <c r="A40" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="0">
+        <v>7667</v>
       </c>
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="0">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="42" outlineLevel="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="42" outlineLevel="1">
       <c r="A42" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="0">
-        <v>3584</v>
       </c>
     </row>
     <row r="43" outlineLevel="2">
@@ -1049,13 +1198,13 @@
         <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>147</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" outlineLevel="2">
@@ -1063,298 +1212,298 @@
         <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="0">
-        <v>3072</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="0">
-        <v>3072</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>9670</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="0">
-        <v>1192</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="0">
-        <v>5120</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="49" outlineLevel="2">
       <c r="A49" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>6149</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="50" outlineLevel="2">
       <c r="A50" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="0">
-        <v>1192</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
       <c r="A51" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="0">
-        <v>4096</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
       <c r="A52" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>6149</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="0">
-        <v>1192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="0">
-        <v>3072</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>2146</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="0">
-        <v>668</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="0">
-        <v>160</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="58" outlineLevel="2">
       <c r="A58" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="59" outlineLevel="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="59" outlineLevel="2">
       <c r="A59" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0">
+        <v>160</v>
       </c>
     </row>
     <row r="60" outlineLevel="2">
       <c r="A60" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="0">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" outlineLevel="2">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="61" outlineLevel="1">
       <c r="A61" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="0">
-        <v>655</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" outlineLevel="2">
       <c r="A62" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="0">
-        <v>4608</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" outlineLevel="2">
       <c r="A63" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="0">
-        <v>4096</v>
+        <v>655</v>
       </c>
     </row>
     <row r="64" outlineLevel="2">
       <c r="A64" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>4096</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="65" outlineLevel="2">
       <c r="A65" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="0">
-        <v>596</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -1362,167 +1511,176 @@
         <v>75</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="0">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" outlineLevel="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="67" outlineLevel="2">
       <c r="A67" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="B67" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="0">
+        <v>596</v>
+      </c>
     </row>
     <row r="68" outlineLevel="2">
       <c r="A68" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="0">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" outlineLevel="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" outlineLevel="1">
       <c r="A69" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="0">
-        <v>661</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" outlineLevel="2">
       <c r="A70" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>4096</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" outlineLevel="2">
       <c r="A71" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="0">
-        <v>4096</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" outlineLevel="2">
       <c r="A72" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="0">
-        <v>596</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="73" outlineLevel="2">
       <c r="A73" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>160</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="74" outlineLevel="2">
       <c r="A74" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="0">
-        <v>4608</v>
-      </c>
-    </row>
-    <row r="75" outlineLevel="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" outlineLevel="2">
       <c r="A75" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="0">
+        <v>160</v>
       </c>
     </row>
     <row r="76" outlineLevel="2">
       <c r="A76" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>183179</v>
-      </c>
-    </row>
-    <row r="77" outlineLevel="2">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="77" outlineLevel="1">
       <c r="A77" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" outlineLevel="2">
       <c r="A78" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" outlineLevel="1">
+      <c r="B78" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="0">
+        <v>183179</v>
+      </c>
+    </row>
+    <row r="79" outlineLevel="2">
       <c r="A79" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" outlineLevel="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="0">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="81" outlineLevel="2">
+    </row>
+    <row r="81" outlineLevel="1">
       <c r="A81" s="0" t="s">
         <v>92</v>
       </c>
@@ -1531,34 +1689,24 @@
       <c r="A82" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="83" outlineLevel="1">
+      <c r="B82" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="0">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="83" outlineLevel="2">
       <c r="A83" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" outlineLevel="2">
       <c r="A84" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="0">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="85" outlineLevel="2">
-      <c r="A85" s="0" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="86" outlineLevel="2">
-      <c r="A86" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1717,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1580,10 +1728,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0">
         <v>183179</v>
@@ -1591,10 +1739,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0">
         <v>13824</v>
@@ -1602,10 +1750,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0">
         <v>9670</v>
@@ -1613,114 +1761,123 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>7779</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0">
-        <v>7669</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0">
-        <v>7667</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0">
-        <v>7647</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0">
-        <v>6795</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0">
-        <v>6149</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0">
-        <v>6149</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0">
-        <v>5503</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B12" s="0">
         <v>183179</v>
       </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0">
         <v>13824</v>
       </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0">
-        <v>57249</v>
+        <v>45597</v>
+      </c>
+      <c r="C14" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1728,7 +1885,21 @@
         <v>2</v>
       </c>
       <c r="B15" s="0">
-        <v>7779</v>
+        <v>16016</v>
+      </c>
+      <c r="C15" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0">
+        <v>8862</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
